--- a/EmplCAM/T13_form.xlsx
+++ b/EmplCAM/T13_form.xlsx
@@ -1,33 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{038AB791-7307-4F0C-B877-F21E521FEA08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46250807-D74B-486F-A807-1A3B43B2C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
   <si>
     <t>Табель №</t>
   </si>
@@ -244,22 +237,29 @@
     <t xml:space="preserve">  "_____"  ______________________ 20___ г.</t>
   </si>
   <si>
-    <t>НН</t>
-  </si>
-  <si>
     <t xml:space="preserve">за период с </t>
   </si>
   <si>
     <t>по</t>
+  </si>
+  <si>
+    <t>Жуков Евгений Андреевич</t>
+  </si>
+  <si>
+    <t>Всего дней  неяво)
+за месяц</t>
+  </si>
+  <si>
+    <t>Всего дней  выходных</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="[$-419]d\ mmm;@"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -659,28 +659,73 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -689,20 +734,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -721,48 +763,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1072,39 +1072,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AO22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AI22" sqref="AI22:AI23"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP18" sqref="AP18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="20" width="3.88671875" customWidth="1"/>
+    <col min="6" max="20" width="3.85546875" customWidth="1"/>
     <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
-    <col min="22" max="37" width="3.6640625" customWidth="1"/>
+    <col min="22" max="37" width="3.7109375" customWidth="1"/>
     <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="34" t="s">
+      <c r="O1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
     </row>
-    <row r="2" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="I2" s="1" t="s">
@@ -1128,76 +1128,76 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AJ2" s="35" t="s">
+      <c r="AJ2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
     </row>
-    <row r="3" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="AB3" s="42" t="s">
+    <row r="3" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="42"/>
-      <c r="AE3" s="42"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="42"/>
-      <c r="AJ3" s="36" t="s">
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="37"/>
-      <c r="AL3" s="38"/>
+      <c r="AK3" s="33"/>
+      <c r="AL3" s="34"/>
     </row>
-    <row r="4" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="21">
+        <v>44348</v>
+      </c>
+      <c r="N4" s="21"/>
+      <c r="O4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="15">
-        <v>44348</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="P4" s="15">
+      <c r="P4" s="21">
         <v>44377</v>
       </c>
-      <c r="Q4" s="15"/>
+      <c r="Q4" s="21"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="16">
+      <c r="S4" s="22">
         <f>YEAR(P4)</f>
         <v>2021</v>
       </c>
-      <c r="T4" s="16"/>
+      <c r="T4" s="22"/>
       <c r="U4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="42" t="s">
+      <c r="AB4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AG4" s="42"/>
-      <c r="AH4" s="42"/>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="39">
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="35">
         <v>44357</v>
       </c>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="41"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="25"/>
     </row>
-    <row r="5" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
+    <row r="5" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1221,27 +1221,27 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="42" t="s">
+      <c r="AB5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="42"/>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="42"/>
-      <c r="AF5" s="42"/>
-      <c r="AG5" s="42"/>
-      <c r="AH5" s="42"/>
-      <c r="AI5" s="42"/>
-      <c r="AJ5" s="43"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="41"/>
+      <c r="AC5" s="26"/>
+      <c r="AD5" s="26"/>
+      <c r="AE5" s="26"/>
+      <c r="AF5" s="26"/>
+      <c r="AG5" s="26"/>
+      <c r="AH5" s="26"/>
+      <c r="AI5" s="26"/>
+      <c r="AJ5" s="23"/>
+      <c r="AK5" s="24"/>
+      <c r="AL5" s="25"/>
     </row>
-    <row r="6" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+    <row r="6" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1265,17 +1265,17 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AJ6" s="43"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="41"/>
+      <c r="AJ6" s="23"/>
+      <c r="AK6" s="24"/>
+      <c r="AL6" s="25"/>
     </row>
-    <row r="7" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
+    <row r="7" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1299,96 +1299,96 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="42" t="s">
+      <c r="AB7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="42"/>
-      <c r="AE7" s="42"/>
-      <c r="AF7" s="42"/>
-      <c r="AG7" s="42"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="42"/>
-      <c r="AJ7" s="43"/>
-      <c r="AK7" s="40"/>
-      <c r="AL7" s="41"/>
+      <c r="AC7" s="26"/>
+      <c r="AD7" s="26"/>
+      <c r="AE7" s="26"/>
+      <c r="AF7" s="26"/>
+      <c r="AG7" s="26"/>
+      <c r="AH7" s="26"/>
+      <c r="AI7" s="26"/>
+      <c r="AJ7" s="23"/>
+      <c r="AK7" s="24"/>
+      <c r="AL7" s="25"/>
     </row>
-    <row r="8" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AB8" s="42" t="s">
+      <c r="AB8" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="45"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="47"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="26"/>
+      <c r="AE8" s="26"/>
+      <c r="AF8" s="26"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="26"/>
+      <c r="AI8" s="26"/>
+      <c r="AJ8" s="27"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="29"/>
     </row>
-    <row r="10" spans="1:38" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:41" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="25" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="21" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
-      <c r="AB10" s="27"/>
-      <c r="AC10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AE10" s="27"/>
-      <c r="AF10" s="27"/>
-      <c r="AG10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AI10" s="27"/>
-      <c r="AJ10" s="27"/>
-      <c r="AK10" s="27"/>
-      <c r="AL10" s="26"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+      <c r="P10" s="39"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="39"/>
+      <c r="U10" s="39"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="39"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="39"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="39"/>
+      <c r="AC10" s="39"/>
+      <c r="AD10" s="39"/>
+      <c r="AE10" s="39"/>
+      <c r="AF10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AH10" s="39"/>
+      <c r="AI10" s="39"/>
+      <c r="AJ10" s="39"/>
+      <c r="AK10" s="39"/>
+      <c r="AL10" s="40"/>
     </row>
-    <row r="11" spans="1:38" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="29"/>
+    <row r="11" spans="1:41" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="47"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="22"/>
+      <c r="E11" s="37"/>
       <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1488,12 +1488,21 @@
       <c r="AL11" s="6" t="s">
         <v>53</v>
       </c>
+      <c r="AM11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO11" s="6" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1600,126 +1609,79 @@
         <v>58</v>
       </c>
       <c r="AL12" s="7">
-        <f>SUM(AL13:AL12629)</f>
+        <f>SUM(AL13:AL12439)</f>
         <v>0</v>
       </c>
+      <c r="AM12" s="7">
+        <f>SUM(AM13:AM12439)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="21" t="s">
+    <row r="13" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="44">
         <v>1</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="I13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="P13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="S13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="T13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="U13" s="23">
-        <f>SUM(F14:T14)</f>
+      <c r="B13" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="19">
         <v>0</v>
       </c>
-      <c r="V13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="W13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="X13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AA13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AD13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AG13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AH13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK13" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL13" s="23">
-        <f>SUM(V14:AK14)</f>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AF13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="19">
         <v>0</v>
       </c>
+      <c r="AM13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+    <row r="14" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="45"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
       <c r="F14" s="13" t="s">
         <v>59</v>
       </c>
@@ -1765,7 +1727,7 @@
       <c r="T14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="U14" s="24"/>
+      <c r="U14" s="20"/>
       <c r="V14" s="13" t="s">
         <v>59</v>
       </c>
@@ -1814,10 +1776,13 @@
       <c r="AK14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AL14" s="24"/>
+      <c r="AL14" s="20"/>
+      <c r="AM14" s="20"/>
+      <c r="AN14" s="20"/>
+      <c r="AO14" s="20"/>
     </row>
-    <row r="15" spans="1:38" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:38" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -1833,52 +1798,52 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
-      <c r="R16" s="17" t="s">
+      <c r="R16" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="18"/>
-      <c r="AB16" s="18"/>
-      <c r="AC16" s="18"/>
-      <c r="AD16" s="18"/>
-      <c r="AE16" s="18"/>
-      <c r="AF16" s="18"/>
-      <c r="AG16" s="18"/>
-      <c r="AH16" s="18"/>
-      <c r="AI16" s="18"/>
-      <c r="AJ16" s="18"/>
-      <c r="AK16" s="18"/>
-      <c r="AL16" s="19"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="17"/>
+      <c r="AH16" s="17"/>
+      <c r="AI16" s="17"/>
+      <c r="AJ16" s="17"/>
+      <c r="AK16" s="17"/>
+      <c r="AL16" s="18"/>
     </row>
-    <row r="17" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="G17" s="20" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="G17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="L17" s="20" t="s">
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="L17" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
       <c r="R17" s="8"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -1901,7 +1866,7 @@
       <c r="AK17" s="2"/>
       <c r="AL17" s="9"/>
     </row>
-    <row r="18" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R18" s="8"/>
       <c r="S18" s="2" t="s">
         <v>66</v>
@@ -1926,7 +1891,7 @@
       <c r="AK18" s="2"/>
       <c r="AL18" s="9"/>
     </row>
-    <row r="19" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>66</v>
       </c>
@@ -1946,49 +1911,49 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
-      <c r="V19" s="20" t="s">
+      <c r="V19" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="W19" s="20"/>
-      <c r="X19" s="20"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="15"/>
       <c r="Y19" s="2"/>
-      <c r="Z19" s="20" t="s">
+      <c r="Z19" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="AA19" s="20"/>
-      <c r="AB19" s="20"/>
-      <c r="AC19" s="20"/>
+      <c r="AA19" s="15"/>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="20" t="s">
+      <c r="AE19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="AF19" s="20"/>
-      <c r="AG19" s="20"/>
-      <c r="AH19" s="20"/>
-      <c r="AI19" s="20"/>
+      <c r="AF19" s="15"/>
+      <c r="AG19" s="15"/>
+      <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="9"/>
     </row>
-    <row r="20" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="20" t="s">
+    <row r="20" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C20" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="G20" s="20" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="G20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="L20" s="20" t="s">
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="L20" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="15"/>
       <c r="R20" s="8"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
@@ -2011,7 +1976,7 @@
       <c r="AK20" s="2"/>
       <c r="AL20" s="9"/>
     </row>
-    <row r="21" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="R21" s="8"/>
       <c r="S21" s="2" t="s">
         <v>67</v>
@@ -2036,7 +2001,7 @@
       <c r="AK21" s="2"/>
       <c r="AL21" s="9"/>
     </row>
-    <row r="22" spans="1:38" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
@@ -2063,51 +2028,44 @@
       <c r="AL22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="41">
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="AB7:AI7"/>
+  <mergeCells count="34">
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="AB5:AI5"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A6:D6"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AJ7:AL7"/>
-    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:AL10"/>
+    <mergeCell ref="AL13:AL14"/>
     <mergeCell ref="O1:T1"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AJ3:AL3"/>
     <mergeCell ref="AJ4:AL4"/>
     <mergeCell ref="AB4:AI4"/>
     <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:AL10"/>
-    <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="V19:X19"/>
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="U13:U14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AM13:AM14"/>
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="S4:T4"/>
-    <mergeCell ref="R16:AL16"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="AE19:AI19"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="AB7:AI7"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AJ7:AL7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="83" fitToHeight="1000" orientation="landscape" useFirstPageNumber="1"/>
+  <pageSetup paperSize="9" scale="83" fitToHeight="1000" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/EmplCAM/T13_form.xlsx
+++ b/EmplCAM/T13_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46250807-D74B-486F-A807-1A3B43B2C182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5C14D7-C3FD-4C65-BD84-665F508DD52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
   <si>
     <t>Табель №</t>
   </si>
@@ -246,11 +246,18 @@
     <t>Жуков Евгений Андреевич</t>
   </si>
   <si>
-    <t>Всего дней  неяво)
+    <t>Всего дней  выходных</t>
+  </si>
+  <si>
+    <t>Всего дней (часов) явок 
 за месяц</t>
   </si>
   <si>
-    <t>Всего дней  выходных</t>
+    <t>Всего дней  неявок
+за месяц</t>
+  </si>
+  <si>
+    <t>Прогулов</t>
   </si>
 </sst>
 </file>
@@ -677,12 +684,75 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -692,15 +762,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -709,60 +770,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1073,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AO22"/>
+  <dimension ref="A1:AP22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AP18" sqref="AP18"/>
+      <selection activeCell="AP15" sqref="AP15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1091,20 +1098,20 @@
     <col min="38" max="38" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="O1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
     </row>
-    <row r="2" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="I2" s="1" t="s">
@@ -1128,76 +1135,76 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
-      <c r="AJ2" s="31" t="s">
+      <c r="AJ2" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
     </row>
-    <row r="3" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB3" s="26" t="s">
+    <row r="3" spans="1:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AB3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="32" t="s">
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="AK3" s="33"/>
-      <c r="AL3" s="34"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="38"/>
     </row>
-    <row r="4" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="L4" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M4" s="21">
+      <c r="M4" s="42">
         <v>44348</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="42"/>
       <c r="O4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="21">
+      <c r="P4" s="42">
         <v>44377</v>
       </c>
-      <c r="Q4" s="21"/>
+      <c r="Q4" s="42"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="22">
+      <c r="S4" s="43">
         <f>YEAR(P4)</f>
         <v>2021</v>
       </c>
-      <c r="T4" s="22"/>
+      <c r="T4" s="43"/>
       <c r="U4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="26" t="s">
+      <c r="AB4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="35">
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="20"/>
+      <c r="AG4" s="20"/>
+      <c r="AH4" s="20"/>
+      <c r="AI4" s="20"/>
+      <c r="AJ4" s="39">
         <v>44357</v>
       </c>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="25"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="41"/>
     </row>
-    <row r="5" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -1221,27 +1228,27 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="26" t="s">
+      <c r="AB5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AC5" s="26"/>
-      <c r="AD5" s="26"/>
-      <c r="AE5" s="26"/>
-      <c r="AF5" s="26"/>
-      <c r="AG5" s="26"/>
-      <c r="AH5" s="26"/>
-      <c r="AI5" s="26"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="25"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="20"/>
+      <c r="AG5" s="20"/>
+      <c r="AH5" s="20"/>
+      <c r="AI5" s="20"/>
+      <c r="AJ5" s="44"/>
+      <c r="AK5" s="40"/>
+      <c r="AL5" s="41"/>
     </row>
-    <row r="6" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -1265,17 +1272,17 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AJ6" s="23"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="25"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="40"/>
+      <c r="AL6" s="41"/>
     </row>
-    <row r="7" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1299,96 +1306,96 @@
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="26" t="s">
+      <c r="AB7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AC7" s="26"/>
-      <c r="AD7" s="26"/>
-      <c r="AE7" s="26"/>
-      <c r="AF7" s="26"/>
-      <c r="AG7" s="26"/>
-      <c r="AH7" s="26"/>
-      <c r="AI7" s="26"/>
-      <c r="AJ7" s="23"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="25"/>
+      <c r="AC7" s="20"/>
+      <c r="AD7" s="20"/>
+      <c r="AE7" s="20"/>
+      <c r="AF7" s="20"/>
+      <c r="AG7" s="20"/>
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="40"/>
+      <c r="AL7" s="41"/>
     </row>
-    <row r="8" spans="1:41" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="AB8" s="26" t="s">
+      <c r="AB8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="26"/>
-      <c r="AJ8" s="27"/>
-      <c r="AK8" s="28"/>
-      <c r="AL8" s="29"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="46"/>
+      <c r="AL8" s="47"/>
     </row>
-    <row r="10" spans="1:41" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+    <row r="10" spans="1:42" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="36" t="s">
+      <c r="D10" s="24"/>
+      <c r="E10" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
-      <c r="Z10" s="39"/>
-      <c r="AA10" s="39"/>
-      <c r="AB10" s="39"/>
-      <c r="AC10" s="39"/>
-      <c r="AD10" s="39"/>
-      <c r="AE10" s="39"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="39"/>
-      <c r="AH10" s="39"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="39"/>
-      <c r="AL10" s="40"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
+      <c r="AH10" s="33"/>
+      <c r="AI10" s="33"/>
+      <c r="AJ10" s="33"/>
+      <c r="AK10" s="33"/>
+      <c r="AL10" s="24"/>
     </row>
-    <row r="11" spans="1:41" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="47"/>
-      <c r="B11" s="43"/>
+    <row r="11" spans="1:42" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="26"/>
       <c r="C11" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="37"/>
+      <c r="E11" s="22"/>
       <c r="F11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1489,20 +1496,23 @@
         <v>53</v>
       </c>
       <c r="AM11" s="6" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="AN11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AO11" s="6" t="s">
-        <v>73</v>
+      <c r="AP11" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
+    <row r="12" spans="1:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="40"/>
+      <c r="B12" s="24"/>
       <c r="C12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1616,19 +1626,31 @@
         <f>SUM(AM13:AM12439)</f>
         <v>0</v>
       </c>
+      <c r="AN12" s="7">
+        <f>SUM(AN13:AN12439)</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="7">
+        <f>SUM(AO13:AO12439)</f>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="7">
+        <f>SUM(AP13:AP12439)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="44">
+    <row r="13" spans="1:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27">
         <v>1</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C13" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="14"/>
       <c r="G13" s="14"/>
       <c r="H13" s="14"/>
@@ -1644,7 +1666,7 @@
       <c r="R13" s="14"/>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
-      <c r="U13" s="19">
+      <c r="U13" s="31">
         <v>0</v>
       </c>
       <c r="V13" s="14"/>
@@ -1663,25 +1685,29 @@
       <c r="AI13" s="14"/>
       <c r="AJ13" s="14"/>
       <c r="AK13" s="14"/>
-      <c r="AL13" s="19">
+      <c r="AL13" s="31">
         <v>0</v>
       </c>
-      <c r="AM13" s="19">
+      <c r="AM13" s="31">
         <v>0</v>
       </c>
-      <c r="AN13" s="19">
+      <c r="AN13" s="31">
         <v>0</v>
       </c>
-      <c r="AO13" s="19">
+      <c r="AO13" s="31">
         <v>0</v>
       </c>
+      <c r="AP13" s="31">
+        <f>AN13-AO13</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
+    <row r="14" spans="1:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="13" t="s">
         <v>59</v>
       </c>
@@ -1727,7 +1753,7 @@
       <c r="T14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="U14" s="20"/>
+      <c r="U14" s="32"/>
       <c r="V14" s="13" t="s">
         <v>59</v>
       </c>
@@ -1776,13 +1802,14 @@
       <c r="AK14" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AL14" s="20"/>
-      <c r="AM14" s="20"/>
-      <c r="AN14" s="20"/>
-      <c r="AO14" s="20"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="32"/>
+      <c r="AP14" s="32"/>
     </row>
-    <row r="15" spans="1:41" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:41" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:42" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -2028,7 +2055,26 @@
       <c r="AL22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
+    <mergeCell ref="AP13:AP14"/>
+    <mergeCell ref="AN13:AN14"/>
+    <mergeCell ref="AO13:AO14"/>
+    <mergeCell ref="AM13:AM14"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="AJ5:AL5"/>
+    <mergeCell ref="AB8:AI8"/>
+    <mergeCell ref="AB7:AI7"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AJ6:AL6"/>
+    <mergeCell ref="AJ7:AL7"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AJ3:AL3"/>
+    <mergeCell ref="AJ4:AL4"/>
+    <mergeCell ref="AB4:AI4"/>
+    <mergeCell ref="AB3:AI3"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="AB5:AI5"/>
     <mergeCell ref="A7:D7"/>
@@ -2045,24 +2091,6 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:AL10"/>
     <mergeCell ref="AL13:AL14"/>
-    <mergeCell ref="O1:T1"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AJ3:AL3"/>
-    <mergeCell ref="AJ4:AL4"/>
-    <mergeCell ref="AB4:AI4"/>
-    <mergeCell ref="AB3:AI3"/>
-    <mergeCell ref="AN13:AN14"/>
-    <mergeCell ref="AO13:AO14"/>
-    <mergeCell ref="AM13:AM14"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="AJ5:AL5"/>
-    <mergeCell ref="AB8:AI8"/>
-    <mergeCell ref="AB7:AI7"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AJ6:AL6"/>
-    <mergeCell ref="AJ7:AL7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="83" fitToHeight="1000" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
